--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2186839.317113966</v>
+        <v>2262368.98677877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>64.444767942859</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>274.1142758523306</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -750,7 +752,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -829,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>66.9789447792819</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>156.1271626621472</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>237.4552014283703</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>75.47724870633921</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>160.4740936944296</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>78.73282967914193</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>146.4340874029168</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>17.71051693380636</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>35.10850750580163</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>147.3627673269533</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>67.61524188852295</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>13.64109019468191</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1546,7 +1548,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1588,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1616,16 +1618,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417108</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896904</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113185</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>64.5345586055649</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185879</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1855,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896906</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>41.88171928086648</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>218.2893929905055</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>46.14914560677357</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>58.70811713027396</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2536,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056524</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>157.2425576766696</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -3001,7 +3003,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>143.3158222056515</v>
+        <v>17.78458198347224</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3199,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>37.11027093286451</v>
+        <v>85.64237563442776</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3439,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
@@ -3481,13 +3483,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>215.6214853475421</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3676,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>93.1138472080751</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>57.93408156253791</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>170.6749938328998</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.074449030931</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1487.242648509747</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="C2" t="n">
-        <v>1422.14692331494</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>1699.030030236486</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1313.241777638242</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>902.255872848634</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>484.2920647468209</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="X2" t="n">
-        <v>1873.842488573869</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="Y2" t="n">
-        <v>1873.842488573869</v>
+        <v>2057.295728843236</v>
       </c>
     </row>
     <row r="3">
@@ -4389,19 +4391,19 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,19 +4412,19 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>279.3468541648867</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C5" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D5" t="n">
-        <v>1363.553390680693</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
         <v>1363.553390680693</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1993.54646147304</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y5" t="n">
-        <v>1603.407129497228</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4647,10 +4649,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.0636002298166</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>348.1274173019098</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.1274173019098</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>268.5993065148977</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600564</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600564</v>
+        <v>216.038025956152</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600564</v>
+        <v>216.038025956152</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2107.607341885688</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="C8" t="n">
-        <v>2107.607341885688</v>
+        <v>1721.819089287443</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
         <v>1363.553390680693</v>
@@ -4799,16 +4801,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2494.20718194981</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2494.20718194981</v>
+        <v>2113.174258592772</v>
       </c>
       <c r="X8" t="n">
-        <v>2494.20718194981</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y8" t="n">
-        <v>2494.20718194981</v>
+        <v>1721.819089287443</v>
       </c>
     </row>
     <row r="9">
@@ -4878,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>579.9823256406185</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C10" t="n">
-        <v>579.9823256406185</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>429.8656862282827</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>281.9525926458896</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>135.0626451479792</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>135.0626451479792</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>135.0626451479792</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.2777040781987</v>
       </c>
       <c r="U10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.2777040781987</v>
       </c>
       <c r="V10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.2777040781987</v>
       </c>
       <c r="W10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.2777040781987</v>
       </c>
       <c r="X10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.2777040781987</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.9823256406185</v>
+        <v>579.2777040781987</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5039,10 +5041,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5059,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5126,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1099.417155020476</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N12" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.5552164996849</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C13" t="n">
-        <v>727.619033571778</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D13" t="n">
-        <v>577.5023941594422</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E13" t="n">
-        <v>429.5893005770491</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y13" t="n">
-        <v>1078.203681329925</v>
+        <v>1209.499100520942</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5257,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805478</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,16 +5311,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5364,7 +5366,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
         <v>1558.376451307619</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>310.3166078765829</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>310.3166078765829</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>310.3166078765829</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>162.4035142941898</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>162.4035142941898</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>162.4035142941898</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>162.4035142941898</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>531.109187020113</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>310.3166078765829</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,7 +5503,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,13 +5515,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5540,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>289.9398668627127</v>
+        <v>696.2811958984813</v>
       </c>
       <c r="C19" t="n">
-        <v>289.9398668627127</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D19" t="n">
-        <v>289.9398668627127</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>289.9398668627127</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>289.9398668627127</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>1167.346830765682</v>
       </c>
       <c r="W19" t="n">
-        <v>920.3704617344999</v>
+        <v>877.929660728721</v>
       </c>
       <c r="X19" t="n">
-        <v>692.3809108364826</v>
+        <v>877.929660728721</v>
       </c>
       <c r="Y19" t="n">
-        <v>471.5883316929525</v>
+        <v>877.929660728721</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5743,37 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514091</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5838,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>505.7582697485844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>355.6416303362487</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1452.300971965202</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1452.300971965202</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>1197.616483759315</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W22" t="n">
-        <v>908.1993137223543</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X22" t="n">
-        <v>908.1993137223543</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>687.4067345788242</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>242.5343297994519</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>391.6040140015118</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>638.369141907976</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M24" t="n">
-        <v>1406.737288300438</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N24" t="n">
-        <v>1736.59991596447</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1439.615142143484</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1239.695132059036</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1015.909716848542</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>726.7810780621004</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.336020727022</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="W25" t="n">
-        <v>3603.918850690061</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6221,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6242,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>316.9584588710876</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L27" t="n">
-        <v>563.7235867775516</v>
+        <v>659.373105721172</v>
       </c>
       <c r="M27" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6409,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,43 +6448,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6497,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M30" t="n">
-        <v>3484.747546292012</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241922</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688036</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799329</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471158</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473451</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687009</v>
       </c>
       <c r="V31" t="n">
-        <v>531.3977182706318</v>
+        <v>755.1831334811226</v>
       </c>
       <c r="W31" t="n">
-        <v>241.9805482336712</v>
+        <v>465.765963444162</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="32">
@@ -6698,7 +6700,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6743,7 +6745,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3927.227929789378</v>
+        <v>782.4872769945461</v>
       </c>
       <c r="C34" t="n">
-        <v>3758.291746861471</v>
+        <v>613.5510940666392</v>
       </c>
       <c r="D34" t="n">
-        <v>3608.175107449136</v>
+        <v>463.4344546543034</v>
       </c>
       <c r="E34" t="n">
-        <v>3608.175107449136</v>
+        <v>463.4344546543034</v>
       </c>
       <c r="F34" t="n">
-        <v>3608.175107449136</v>
+        <v>463.4344546543034</v>
       </c>
       <c r="G34" t="n">
-        <v>3608.175107449136</v>
+        <v>295.259132974124</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>4660.934562929845</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>4437.14914771935</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U34" t="n">
-        <v>4148.020508932908</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V34" t="n">
-        <v>4148.020508932908</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W34" t="n">
-        <v>4148.020508932908</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X34" t="n">
-        <v>4148.020508932908</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y34" t="n">
-        <v>3927.227929789378</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,13 +6928,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
@@ -6944,10 +6946,10 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6959,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V37" t="n">
-        <v>786.0822064765186</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W37" t="n">
-        <v>496.665036439558</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X37" t="n">
-        <v>278.8655562905255</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y37" t="n">
-        <v>278.8655562905255</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7163,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7205,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690734</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409607</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748356</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.0874327429</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769785</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.62619637397</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805658</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098442</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250804</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>2911.709630095317</v>
       </c>
       <c r="L39" t="n">
-        <v>732.169830515405</v>
+        <v>3443.999848753678</v>
       </c>
       <c r="M39" t="n">
-        <v>1039.489963795367</v>
+        <v>3751.319982033639</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>4081.182609697672</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>4360.722674916369</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698579</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R39" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S39" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098068</v>
       </c>
       <c r="T39" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021846</v>
       </c>
       <c r="U39" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641233</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.77681940949</v>
       </c>
       <c r="W39" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X39" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475756</v>
       </c>
       <c r="Y39" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710802</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>302.8060739576061</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U40" t="n">
-        <v>1187.92115703528</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V40" t="n">
-        <v>933.2366688293934</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W40" t="n">
-        <v>933.2366688293934</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X40" t="n">
-        <v>705.247117931376</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
-        <v>484.4545387878459</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7418,25 +7420,25 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7445,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.396996252309</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1151.268357465867</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>896.5838692599799</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7640,25 +7642,25 @@
         <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>167.8887746690278</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>316.9584588710876</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>711.072954880832</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C46" t="n">
-        <v>542.1367719529251</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D46" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E46" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U46" t="n">
-        <v>1298.996260473455</v>
+        <v>791.73675815519</v>
       </c>
       <c r="V46" t="n">
-        <v>1044.311772267568</v>
+        <v>537.0522699493032</v>
       </c>
       <c r="W46" t="n">
-        <v>1044.311772267568</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X46" t="n">
-        <v>1044.311772267568</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y46" t="n">
-        <v>892.7214197110717</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8073,7 +8075,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8529,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8772,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>180.0237016735871</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,10 +9172,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>104.8749102765742</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776745</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>29.47535963978214</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10446,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10683,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10844,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>73.53204524669985</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10923,7 +10925,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>73.53204524670008</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,13 +11314,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>29.47535963978211</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2167382934144</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>131.7799578282493</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -23476,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23659,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>45.8846868587071</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>124.6118491825111</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,19 +23946,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>33.84825033332245</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>175.3984154516157</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24382,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642759</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>51.25623527351884</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24424,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.3938331833848</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,7 +24618,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675397</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,10 +24651,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>61.34209567542518</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24889,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>82.39383318338568</v>
+        <v>207.9250734055649</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>111.8035574346716</v>
+        <v>63.27145273310836</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25327,7 +25329,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>10.088170041495</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25564,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>55.79998115946103</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>163.6134794958513</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.51020432116377</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015057</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="14">
@@ -26320,40 +26322,40 @@
         <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="F2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.2306459066</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.2306459068</v>
+      </c>
+      <c r="J2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="K2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="F2" t="n">
-        <v>527889.2306459072</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="L2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="M2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
+        <v>527889.2306459069</v>
+      </c>
+      <c r="O2" t="n">
         <v>527889.230645907</v>
       </c>
-      <c r="I2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="K2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="L2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>527889.2306459069</v>
-      </c>
-      <c r="N2" t="n">
-        <v>527889.230645907</v>
-      </c>
-      <c r="O2" t="n">
-        <v>527889.2306459069</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459071</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.43789662786655e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007533</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007522</v>
+      </c>
+      <c r="H4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007511</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="H4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="J4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="K4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007436</v>
       </c>
       <c r="L4" t="n">
+        <v>7916.731656007435</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7916.731656007485</v>
+      </c>
+      <c r="N4" t="n">
         <v>7916.731656007484</v>
       </c>
-      <c r="M4" t="n">
-        <v>7916.731656007536</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007483</v>
-      </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007485</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26475,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
@@ -26485,22 +26487,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354837</v>
+        <v>-266540.8113354838</v>
       </c>
       <c r="C6" t="n">
         <v>323427.0678790607</v>
@@ -26528,40 +26530,40 @@
         <v>323427.0678790606</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571323</v>
+        <v>-97174.86343571325</v>
       </c>
       <c r="F6" t="n">
+        <v>427985.1730411829</v>
+      </c>
+      <c r="G6" t="n">
+        <v>427985.1730411825</v>
+      </c>
+      <c r="H6" t="n">
         <v>427985.173041183</v>
       </c>
-      <c r="G6" t="n">
-        <v>427985.1730411829</v>
-      </c>
-      <c r="H6" t="n">
-        <v>427985.1730411829</v>
-      </c>
       <c r="I6" t="n">
-        <v>427985.173041183</v>
+        <v>427985.1730411827</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.9538485901</v>
+        <v>251561.9538485899</v>
       </c>
       <c r="K6" t="n">
         <v>427985.173041183</v>
       </c>
       <c r="L6" t="n">
-        <v>427985.173041183</v>
+        <v>427985.1730411829</v>
       </c>
       <c r="M6" t="n">
-        <v>293184.1578073457</v>
+        <v>293184.1578073458</v>
       </c>
       <c r="N6" t="n">
+        <v>427985.1730411828</v>
+      </c>
+      <c r="O6" t="n">
         <v>427985.1730411829</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>427985.1730411828</v>
-      </c>
-      <c r="P6" t="n">
-        <v>427985.173041183</v>
       </c>
     </row>
   </sheetData>
@@ -26695,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.047370784833188e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.047370784833188e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26735,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26917,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.047370784833188e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.047370784833188e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>300.8281238281485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>49.80849691202656</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27549,16 +27551,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>100.330857479769</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787166</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>145.2786402351102</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>294.2538519721298</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>19.35788648750767</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>67.70113296742724</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>27.98162540605466</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27913,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>368.5274217222473</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>99.8571142865366</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>77.67233813113097</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28339,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.07316454573422e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29056,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.179500941361766e-12</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29214,7 +29216,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>-3.912011455516525e-12</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29281,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29448,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-2.156484740168153e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29691,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-2.133731038308066e-12</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-6.433359914496678e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>429.2814066296115</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>268.0367344586612</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,16 +35886,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
         <v>713.1546070951472</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>146.7850892314809</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>180.0507982277214</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734237</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556196</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>322.7897502027242</v>
+        <v>537.6668875336981</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37713,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>280.6254601782248</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37950,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38034,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>71.3855385946888</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38187,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2262368.98677877</v>
+        <v>2255351.97188706</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>298.1689170259752</v>
       </c>
       <c r="H2" t="n">
-        <v>274.1142758523306</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -752,10 +752,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,16 +825,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>28.44734925172048</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.1271626621472</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>96.95377689311783</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -949,10 +949,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>75.47724870633921</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>160.4740936944296</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>163.9206648785249</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>17.71051693380636</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>42.98425264020182</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>147.3627673269533</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.61524188852295</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1536,7 +1536,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>135.7789877804221</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896904</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113185</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274077</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>64.5345586055649</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,22 +1815,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896906</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2004,13 +2004,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>70.02468195575985</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>218.2893929905055</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>58.70811713027396</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>157.2425576766696</v>
+        <v>42.93943942157695</v>
       </c>
     </row>
     <row r="29">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>89.84971271248617</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>17.78458198347224</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>85.64237563442776</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>170.5809693952255</v>
       </c>
     </row>
     <row r="38">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>26.15603929387831</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3796,7 +3796,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>17.93359706704273</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>170.6749938328998</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2057.295728843236</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="C2" t="n">
-        <v>2057.295728843236</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="D2" t="n">
-        <v>1699.030030236486</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="E2" t="n">
-        <v>1313.241777638242</v>
+        <v>919.5755868835442</v>
       </c>
       <c r="F2" t="n">
-        <v>902.255872848634</v>
+        <v>508.5896820939367</v>
       </c>
       <c r="G2" t="n">
-        <v>484.2920647468209</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2057.295728843236</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2057.295728843236</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>2057.295728843236</v>
+        <v>919.5755868835442</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>546.4805193761946</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>398.5674257938015</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>251.6774782958911</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>82.67767803422353</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1749.341643278937</v>
+        <v>2149.375138862102</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.341643278937</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2212.181128500977</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>2135.941483343059</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>2135.941483343059</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="6">
@@ -4637,40 +4637,40 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>444.0275768541693</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>216.038025956152</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.038025956152</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.819089287443</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1721.819089287443</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592772</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1721.819089287443</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4971,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>579.2777040781987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>579.2777040781987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>579.2777040781987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>579.2777040781987</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>579.2777040781987</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y10" t="n">
-        <v>579.2777040781987</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5038,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5062,10 +5062,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5238,13 +5238,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>1209.499100520942</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805478</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.3166078765829</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>310.3166078765829</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>310.3166078765829</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>162.4035142941898</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>162.4035142941898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>162.4035142941898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>162.4035142941898</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>820.5263570570736</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W16" t="n">
-        <v>531.109187020113</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X16" t="n">
-        <v>531.109187020113</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.3166078765829</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5503,13 +5503,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,10 +5518,10 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5542,22 +5542,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>3158.47475800178</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M18" t="n">
-        <v>3465.794891281741</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N18" t="n">
-        <v>3795.657518945774</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O18" t="n">
-        <v>4075.197584164471</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.2811958984813</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C19" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D19" t="n">
-        <v>527.3450129705744</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1428.184268582387</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>1139.055629795946</v>
       </c>
       <c r="V19" t="n">
-        <v>1167.346830765682</v>
+        <v>884.3711415900586</v>
       </c>
       <c r="W19" t="n">
-        <v>877.929660728721</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="X19" t="n">
-        <v>877.929660728721</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y19" t="n">
-        <v>877.929660728721</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.284191751408</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5770,10 +5770,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5837,19 +5837,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>1099.417155020476</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,28 +6010,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4075.197584164471</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6171,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1439.615142143484</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1239.695132059036</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1015.909716848542</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>726.7810780621004</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>472.0965898562135</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>472.0965898562135</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>244.1070389581962</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6223,16 +6223,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.373105721172</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1296.555866665166</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028583</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028583</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028583</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028583</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655738</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W28" t="n">
-        <v>665.6859735286132</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226305959</v>
+        <v>585.5099430858311</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>542.1367719529251</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,10 +6457,10 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823786</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,25 +6530,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
         <v>1228.513823643586</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>266.1532743881928</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028583</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028583</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028583</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241922</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688036</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799329</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471158</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473451</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473451</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687009</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V31" t="n">
-        <v>755.1831334811226</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W31" t="n">
-        <v>465.765963444162</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X31" t="n">
-        <v>447.8017392184324</v>
+        <v>503.0396462065435</v>
       </c>
       <c r="Y31" t="n">
-        <v>447.8017392184324</v>
+        <v>503.0396462065435</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,22 +6785,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.4872769945461</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>613.5510940666392</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>463.4344546543034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>463.4344546543034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>463.4344546543034</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>295.259132974124</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>964.1357418247858</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>964.1357418247858</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>964.1357418247858</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.1357418247858</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,22 +6931,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,40 +7004,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>130.9054447954965</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,46 +7101,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799325</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471153</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974663</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.48306298006</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585743</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="T37" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557899</v>
       </c>
       <c r="U37" t="n">
-        <v>675.007103038344</v>
+        <v>1209.787631771457</v>
       </c>
       <c r="V37" t="n">
-        <v>420.3226148324571</v>
+        <v>955.1031435655699</v>
       </c>
       <c r="W37" t="n">
-        <v>130.9054447954965</v>
+        <v>665.6859735286093</v>
       </c>
       <c r="X37" t="n">
-        <v>130.9054447954965</v>
+        <v>437.696422630592</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.9054447954965</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="38">
@@ -7180,22 +7180,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>2500.819361250804</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>2911.709630095317</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>3443.999848753678</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>4081.182609697672</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>4360.722674916369</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>4565.745155698579</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S39" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T39" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U39" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X39" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y39" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>648.5868613273558</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7402,10 +7402,10 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
@@ -7417,46 +7417,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028587</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7645,22 +7645,22 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>247.6350999123426</v>
+        <v>263.2449295548433</v>
       </c>
       <c r="C46" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D46" t="n">
-        <v>247.6350999123426</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>791.73675815519</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V46" t="n">
-        <v>537.0522699493032</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W46" t="n">
-        <v>247.6350999123426</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X46" t="n">
-        <v>247.6350999123426</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y46" t="n">
-        <v>247.6350999123426</v>
+        <v>444.8933943850831</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9172,7 +9172,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776745</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>180.0237016735874</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11314,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2167382934144</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>45.8846868587071</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,22 +23703,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>151.5228791026294</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>33.84825033332245</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>30.12558851170024</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642759</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>51.25623527351884</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675397</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>61.34209567542518</v>
+        <v>175.6452139305179</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>58.76576030572619</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>207.9250734055649</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>63.27145273310836</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25326,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>115.5623585656776</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>48.00368395686931</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>225.9816040299497</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166316</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>149.3132240315851</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>115.5623585656776</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>847841.4164015057</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583911</v>
+        <v>554203.1946583912</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
@@ -26325,19 +26325,19 @@
         <v>527889.2306459069</v>
       </c>
       <c r="F2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="G2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="H2" t="n">
+        <v>527889.2306459072</v>
+      </c>
+      <c r="I2" t="n">
+        <v>527889.230645907</v>
+      </c>
+      <c r="J2" t="n">
         <v>527889.2306459071</v>
-      </c>
-      <c r="G2" t="n">
-        <v>527889.2306459066</v>
-      </c>
-      <c r="H2" t="n">
-        <v>527889.2306459071</v>
-      </c>
-      <c r="I2" t="n">
-        <v>527889.2306459068</v>
-      </c>
-      <c r="J2" t="n">
-        <v>527889.2306459069</v>
       </c>
       <c r="K2" t="n">
         <v>527889.230645907</v>
@@ -26346,16 +26346,16 @@
         <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
+        <v>527889.2306459071</v>
+      </c>
+      <c r="P2" t="n">
         <v>527889.230645907</v>
-      </c>
-      <c r="P2" t="n">
-        <v>527889.2306459069</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>2.43789662786655e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.015233837</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007533</v>
-      </c>
       <c r="G4" t="n">
-        <v>7916.731656007522</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007486</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
-        <v>7916.731656007436</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007435</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="O4" t="n">
         <v>7916.731656007487</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007485</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-266540.8113354838</v>
+        <v>-266540.8113354837</v>
       </c>
       <c r="C6" t="n">
         <v>323427.0678790607</v>
@@ -26530,40 +26530,40 @@
         <v>323427.0678790606</v>
       </c>
       <c r="E6" t="n">
-        <v>-97174.86343571325</v>
+        <v>-98149.45469543488</v>
       </c>
       <c r="F6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="G6" t="n">
-        <v>427985.1730411825</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="H6" t="n">
-        <v>427985.173041183</v>
+        <v>427010.5817814615</v>
       </c>
       <c r="I6" t="n">
-        <v>427985.1730411827</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="J6" t="n">
-        <v>251561.9538485899</v>
+        <v>250587.3625888684</v>
       </c>
       <c r="K6" t="n">
-        <v>427985.173041183</v>
+        <v>427010.5817814613</v>
       </c>
       <c r="L6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814611</v>
       </c>
       <c r="M6" t="n">
-        <v>293184.1578073458</v>
+        <v>292209.566547624</v>
       </c>
       <c r="N6" t="n">
-        <v>427985.1730411828</v>
+        <v>427010.581781461</v>
       </c>
       <c r="O6" t="n">
-        <v>427985.1730411829</v>
+        <v>427010.5817814614</v>
       </c>
       <c r="P6" t="n">
-        <v>427985.1730411828</v>
+        <v>427010.5817814613</v>
       </c>
     </row>
   </sheetData>
@@ -26697,10 +26697,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.926370499017</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.047370784833188e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>115.6152529948198</v>
       </c>
       <c r="H2" t="n">
-        <v>49.80849691202656</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,22 +27545,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>127.7235395900747</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787166</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>285.7800647703627</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>294.2538519721298</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.35788648750767</v>
+        <v>138.7994718469074</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27833,13 +27833,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>10.49504793044667</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>368.5274217222473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>136.8477275417355</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28031,7 +28031,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>77.67233813113097</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.07316454573422e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.179500941361766e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29216,7 +29216,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-3.912011455516525e-12</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-2.156484740168153e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -29693,7 +29693,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>-2.133731038308066e-12</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.433359914496678e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>429.2814066296117</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36676,7 +36676,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
@@ -36688,16 +36688,16 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556196</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299105</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799246</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
@@ -37548,7 +37548,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
         <v>805.3296502221116</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
         <v>805.3296502221116</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
         <v>528.689756130333</v>
@@ -38034,7 +38034,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2255351.97188706</v>
+        <v>2260291.234736091</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>298.1689170259752</v>
+        <v>298.1689170259747</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>18.3768222575565</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,13 +834,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>28.44734925172048</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.95377689311783</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>96.15030530189917</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>163.9206648785249</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>240.7291195778427</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.98425264020182</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>41.03250833502987</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>135.7789877804221</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1584,13 +1584,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>234.8166642163502</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>157.24255767667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>155.8385935972304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>6.213149383359066</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>70.02468195575985</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G20" t="n">
         <v>411.9645167896915</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>116.1816908045487</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>33.35146980185857</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>271.7818641996879</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,7 +2772,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>42.93943942157695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>89.84971271248617</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3240,7 +3240,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>170.5809693952255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3678,10 +3678,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>26.15603929387831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>17.93359706704273</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>919.5755868835442</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="C2" t="n">
-        <v>919.5755868835442</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="D2" t="n">
-        <v>919.5755868835442</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="E2" t="n">
-        <v>919.5755868835442</v>
+        <v>919.5755868835438</v>
       </c>
       <c r="F2" t="n">
-        <v>508.5896820939367</v>
+        <v>508.5896820939362</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4327,13 +4327,13 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
         <v>881.2824271224079</v>
@@ -4348,10 +4348,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4360,10 +4360,10 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
         <v>1662.48357412947</v>
@@ -4375,7 +4375,7 @@
         <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>919.5755868835442</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="3">
@@ -4385,31 +4385,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4430,22 +4430,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4454,7 +4454,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.4805193761946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>546.4805193761946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D4" t="n">
-        <v>546.4805193761946</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E4" t="n">
-        <v>398.5674257938015</v>
+        <v>709.5665374816297</v>
       </c>
       <c r="F4" t="n">
-        <v>251.6774782958911</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G4" t="n">
-        <v>82.67767803422353</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2149.375138862102</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
         <v>1036.358670716696</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4612,7 +4612,7 @@
         <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>2247.308246834948</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4667,22 +4667,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.6820060902423</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4804,13 +4804,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4831,10 +4831,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2531.572661847995</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
         <v>2277.810876486087</v>
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4904,28 +4904,28 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>411.2797076961342</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>264.3897601982238</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>95.38995993655624</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -5004,10 +5004,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.3468541648867</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5038,19 +5038,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
         <v>3183.709822619127</v>
@@ -5059,13 +5059,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231264</v>
@@ -5108,16 +5108,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>138.7081686256434</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5232,19 +5232,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>972.5990820579756</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>744.6095311599582</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>523.8169520164281</v>
       </c>
     </row>
     <row r="14">
@@ -5254,58 +5254,58 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.072954880832</v>
+        <v>256.0479578003566</v>
       </c>
       <c r="C16" t="n">
-        <v>542.1367719529251</v>
+        <v>256.0479578003566</v>
       </c>
       <c r="D16" t="n">
-        <v>392.0201325405893</v>
+        <v>256.0479578003566</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1070389581962</v>
+        <v>256.0479578003566</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>256.0479578003566</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>1341.503549752619</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.503549752619</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X16" t="n">
-        <v>1113.513998854602</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y16" t="n">
-        <v>892.7214197110717</v>
+        <v>437.6964226305963</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>563.7235867775518</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>413.3055067228584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
         <v>265.3924131404652</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1428.184268582387</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1139.055629795946</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>884.3711415900586</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W19" t="n">
-        <v>594.9539715530981</v>
+        <v>720.4504516500522</v>
       </c>
       <c r="X19" t="n">
-        <v>594.9539715530981</v>
+        <v>492.4609007520348</v>
       </c>
       <c r="Y19" t="n">
-        <v>594.9539715530981</v>
+        <v>271.6683216085047</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5776,13 +5776,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
         <v>4262.3578574653</v>
@@ -5819,37 +5819,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1099.417155020476</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
-        <v>1406.737288300438</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N21" t="n">
-        <v>1736.599915964471</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O21" t="n">
-        <v>2016.139981183168</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.07093915895</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>964.1357418247858</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U22" t="n">
-        <v>675.007103038344</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="V22" t="n">
-        <v>420.3226148324571</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="W22" t="n">
-        <v>130.9054447954965</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6010,7 +6010,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6022,16 +6022,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>800.6837097077201</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305959</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>216.9038434870658</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6226,10 +6226,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028584</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U28" t="n">
-        <v>874.9271131227918</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V28" t="n">
-        <v>874.9271131227918</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W28" t="n">
-        <v>585.5099430858311</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X28" t="n">
-        <v>585.5099430858311</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y28" t="n">
-        <v>542.1367719529251</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6457,7 +6457,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>731.0291971045608</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>503.0396462065435</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,19 +6700,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6888,13 +6888,13 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,22 +6931,22 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6961,13 +6961,13 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7004,25 +7004,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643586</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,46 +7101,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471153</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>1049.608084974663</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557899</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557899</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771457</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655699</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>665.6859735286093</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>437.696422630592</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823784</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>648.5868613273558</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>359.1696912903951</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7420,19 +7420,19 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7508,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028587</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>263.2449295548433</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>955.1031435655738</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>665.6859735286132</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>665.6859735286132</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>444.8933943850831</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9005,31 +9005,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>29.47535963978231</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445218</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>180.0237016735874</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,10 +9497,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>127.6461250100656</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9883,7 +9883,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>10.65497486614709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>51.70633412024083</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>9.251010786707582</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,22 +23706,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>221.5475610583858</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>96.29904972659759</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>173.6188307985782</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,7 +23898,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23940,25 +23940,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>151.5228791026294</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633814</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,25 +24177,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>170.0556615940287</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>192.3581855871786</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>30.12558851170024</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,19 +24414,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>14.45548819888944</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800787</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>175.6452139305179</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>58.76576030572619</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,13 +24888,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>48.00368395686931</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25566,10 +25566,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>225.9816040299497</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>50.96659166316</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>149.3132240315851</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,10 +26073,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>847841.4164015059</v>
+        <v>847841.4164015058</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>847841.4164015058</v>
+        <v>847841.4164015059</v>
       </c>
     </row>
   </sheetData>
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583911</v>
+      </c>
+      <c r="C2" t="n">
+        <v>554203.1946583908</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583912</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583911</v>
-      </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>527889.2306459069</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="F2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="G2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459071</v>
       </c>
       <c r="H2" t="n">
-        <v>527889.2306459072</v>
+        <v>527889.2306459068</v>
       </c>
       <c r="I2" t="n">
         <v>527889.230645907</v>
@@ -26340,22 +26340,22 @@
         <v>527889.2306459071</v>
       </c>
       <c r="K2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="L2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="M2" t="n">
-        <v>527889.2306459068</v>
+        <v>527889.230645907</v>
       </c>
       <c r="N2" t="n">
         <v>527889.2306459069</v>
       </c>
       <c r="O2" t="n">
-        <v>527889.2306459071</v>
+        <v>527889.2306459069</v>
       </c>
       <c r="P2" t="n">
-        <v>527889.230645907</v>
+        <v>527889.2306459066</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.695895773285884e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
@@ -26432,13 +26432,13 @@
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007486</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="J4" t="n">
         <v>7916.731656007484</v>
@@ -26450,13 +26450,13 @@
         <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007487</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007486</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26478,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26502,10 +26502,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26524,46 +26524,46 @@
         <v>-266540.8113354837</v>
       </c>
       <c r="C6" t="n">
-        <v>323427.0678790607</v>
+        <v>323427.0678790605</v>
       </c>
       <c r="D6" t="n">
-        <v>323427.0678790606</v>
+        <v>323427.0678790609</v>
       </c>
       <c r="E6" t="n">
-        <v>-98149.45469543488</v>
+        <v>-97272.32256168565</v>
       </c>
       <c r="F6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="G6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.7139152111</v>
       </c>
       <c r="H6" t="n">
-        <v>427010.5817814615</v>
+        <v>427887.7139152105</v>
       </c>
       <c r="I6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.7139152107</v>
       </c>
       <c r="J6" t="n">
-        <v>250587.3625888684</v>
+        <v>251464.4947226179</v>
       </c>
       <c r="K6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="L6" t="n">
-        <v>427010.5817814611</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="M6" t="n">
-        <v>292209.566547624</v>
+        <v>293086.6986813736</v>
       </c>
       <c r="N6" t="n">
-        <v>427010.581781461</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="O6" t="n">
-        <v>427010.5817814614</v>
+        <v>427887.7139152106</v>
       </c>
       <c r="P6" t="n">
-        <v>427010.5817814613</v>
+        <v>427887.7139152104</v>
       </c>
     </row>
   </sheetData>
@@ -26749,7 +26749,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26971,7 +26971,7 @@
         <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>115.6152529948198</v>
+        <v>115.6152529948203</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>128.0571403890127</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>127.7235395900747</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>285.7800647703627</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>290.0876333541544</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138.7994718469074</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>4.167450853507134</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>10.49504793044667</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.49504793044656</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.8477275417355</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.167450853507134</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-3.632298752070436e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28538,7 +28538,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>3.487817442267745e-12</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28973,7 +28973,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-3.959144123655279e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>278.7330645958066</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>429.2814066296117</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
         <v>310.4243770504662</v>
@@ -36217,10 +36217,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>215.6591577951397</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36691,13 +36691,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
         <v>528.689756130333</v>
@@ -37165,13 +37165,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37402,13 +37402,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37469,7 +37469,7 @@
         <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799246</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37876,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38113,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
